--- a/POV Certification Success Criteria.xlsx
+++ b/POV Certification Success Criteria.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33440" yWindow="1020" windowWidth="33600" windowHeight="18940" xr2:uid="{8AABBFA4-E218-FF41-9E33-5E3FA161DC78}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="33600" windowHeight="18940" xr2:uid="{8AABBFA4-E218-FF41-9E33-5E3FA161DC78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Pass/Fail</t>
   </si>
@@ -257,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,12 +282,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -353,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -372,7 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +683,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,7 +757,9 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -802,7 +797,9 @@
       <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -814,7 +811,9 @@
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -840,7 +839,9 @@
       <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -852,7 +853,9 @@
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">

--- a/POV Certification Success Criteria.xlsx
+++ b/POV Certification Success Criteria.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Pass/Fail</t>
   </si>
@@ -33,61 +33,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <r>
-      <t>ü</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>û</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ü</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>û</t>
-    </r>
   </si>
   <si>
     <r>
@@ -191,13 +136,21 @@
     <t>Successfully demonstrate the execution of a Gatling Performance Test for SC3. Test should execute for 30 minutes, for a total of 100 users with a ramp-up of 20 mins.</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>why is accessories so dang slow??!</t>
-  </si>
-  <si>
-    <t>why are there 13 failed assertions?</t>
+    <r>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>ü</t>
   </si>
 </sst>
 </file>
@@ -257,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +229,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -347,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -365,7 +312,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +629,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,7 +637,7 @@
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="66.6640625" customWidth="1"/>
     <col min="3" max="3" width="80.1640625" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -707,181 +653,155 @@
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
